--- a/data/game001/fgmysteryweight4.xlsx
+++ b/data/game001/fgmysteryweight4.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7CDFCF-6A04-408C-A84D-7237BFE2BF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>val</t>
   </si>
@@ -49,7 +40,7 @@
     <t>L4</t>
   </si>
   <si>
-    <t>LN</t>
+    <t>LIGHTNING</t>
   </si>
   <si>
     <t>SH1</t>
@@ -61,10 +52,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -72,19 +76,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
+      <color indexed="11"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,8 +180,8 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -262,8 +258,8 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -305,152 +301,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffce9178"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -652,7 +588,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -671,7 +607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -779,7 +715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -805,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -857,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,15 +858,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -947,7 +877,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -966,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,15 +1143,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1235,7 +1159,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1254,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,7 +1416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,52 +1429,44 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="5" hidden="1" width="16.3333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.2" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.2" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="14.65" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
       <c r="B2" s="7">
@@ -1559,10 +1475,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="14.65" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>3</v>
       </c>
       <c r="B3" s="7">
@@ -1571,10 +1487,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="14.65" customHeight="1">
+      <c r="A4" t="s" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="7">
@@ -1583,10 +1499,10 @@
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="14.65" customHeight="1">
+      <c r="A5" t="s" s="6">
         <v>5</v>
       </c>
       <c r="B5" s="7">
@@ -1595,10 +1511,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="14.65" customHeight="1">
+      <c r="A6" t="s" s="6">
         <v>6</v>
       </c>
       <c r="B6" s="7">
@@ -1607,10 +1523,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="14.65" customHeight="1">
+      <c r="A7" t="s" s="6">
         <v>7</v>
       </c>
       <c r="B7" s="7">
@@ -1619,10 +1535,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" t="s" s="6">
         <v>8</v>
       </c>
       <c r="B8" s="7">
@@ -1631,10 +1547,10 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="14.65" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" t="s" s="6">
         <v>9</v>
       </c>
       <c r="B9" s="7">
@@ -1643,36 +1559,35 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.2" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.2" customHeight="1">
+      <c r="A10" t="s" s="6">
         <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>920</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" ht="15.2" customHeight="1">
+      <c r="A11" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>70</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
